--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Vegfc</t>
+  </si>
+  <si>
+    <t>Kdr</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Vegfc</t>
-  </si>
-  <si>
-    <t>Kdr</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H2">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I2">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J2">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N2">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O2">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P2">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q2">
-        <v>903.0540901707624</v>
+        <v>522.6126808270988</v>
       </c>
       <c r="R2">
-        <v>3612.21636068305</v>
+        <v>2090.450723308395</v>
       </c>
       <c r="S2">
-        <v>0.2609396450313647</v>
+        <v>0.4912887605180914</v>
       </c>
       <c r="T2">
-        <v>0.1767724120123723</v>
+        <v>0.4021220359845302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H3">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I3">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J3">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.115296</v>
       </c>
       <c r="O3">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P3">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q3">
-        <v>0.242668045392</v>
+        <v>0.15709858248</v>
       </c>
       <c r="R3">
-        <v>1.456008272352</v>
+        <v>0.9425914948800002</v>
       </c>
       <c r="S3">
-        <v>7.011951367505551E-05</v>
+        <v>0.0001476825394737845</v>
       </c>
       <c r="T3">
-        <v>7.12532330607574E-05</v>
+        <v>0.0001813182232886959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H4">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I4">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J4">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N4">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O4">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P4">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q4">
-        <v>19.9973972914165</v>
+        <v>7.908407173240001</v>
       </c>
       <c r="R4">
-        <v>119.984383748499</v>
+        <v>47.45044303944001</v>
       </c>
       <c r="S4">
-        <v>0.005778295904497461</v>
+        <v>0.007434399700490389</v>
       </c>
       <c r="T4">
-        <v>0.005871721624955374</v>
+        <v>0.009127633840222636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H5">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I5">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J5">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N5">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O5">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P5">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q5">
-        <v>2.700565995576</v>
+        <v>1.32292973014125</v>
       </c>
       <c r="R5">
-        <v>10.802263982304</v>
+        <v>5.291718920565001</v>
       </c>
       <c r="S5">
-        <v>0.0007803350208359321</v>
+        <v>0.001243637078122592</v>
       </c>
       <c r="T5">
-        <v>0.0005286345192748005</v>
+        <v>0.001017922480769013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H6">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I6">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J6">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N6">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O6">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P6">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q6">
-        <v>657.9848411441202</v>
+        <v>2.487928349060001</v>
       </c>
       <c r="R6">
-        <v>3947.90904686472</v>
+        <v>14.92757009436</v>
       </c>
       <c r="S6">
-        <v>0.1901262978075867</v>
+        <v>0.002338808987438045</v>
       </c>
       <c r="T6">
-        <v>0.1932003332402208</v>
+        <v>0.00287148834063202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H7">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I7">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J7">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N7">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O7">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P7">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q7">
-        <v>32.39556947589801</v>
+        <v>11.7786725141575</v>
       </c>
       <c r="R7">
-        <v>194.373416855388</v>
+        <v>70.67203508494501</v>
       </c>
       <c r="S7">
-        <v>0.009360777490118308</v>
+        <v>0.01107269232516658</v>
       </c>
       <c r="T7">
-        <v>0.009512126156838514</v>
+        <v>0.01359457188761284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I8">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J8">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N8">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O8">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P8">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q8">
-        <v>442.7974071548335</v>
+        <v>395.8326138805444</v>
       </c>
       <c r="R8">
-        <v>2656.784442929001</v>
+        <v>2374.995683283266</v>
       </c>
       <c r="S8">
-        <v>0.1279473727005016</v>
+        <v>0.3721075308357219</v>
       </c>
       <c r="T8">
-        <v>0.1300160752510127</v>
+        <v>0.4568575039668347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I9">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J9">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.115296</v>
       </c>
       <c r="O9">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P9">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q9">
         <v>0.118988200672</v>
@@ -1013,10 +1013,10 @@
         <v>1.070893806048</v>
       </c>
       <c r="S9">
-        <v>3.438192593801478E-05</v>
+        <v>0.0001118563857499755</v>
       </c>
       <c r="T9">
-        <v>5.240673929853365E-05</v>
+        <v>0.000205998635992586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I10">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J10">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N10">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O10">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P10">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q10">
-        <v>9.805387924005666</v>
+        <v>5.989914898469332</v>
       </c>
       <c r="R10">
-        <v>88.24849131605099</v>
+        <v>53.90923408622399</v>
       </c>
       <c r="S10">
-        <v>0.002833290355620945</v>
+        <v>0.005630896405767537</v>
       </c>
       <c r="T10">
-        <v>0.004318650132973036</v>
+        <v>0.01037005595368007</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I11">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J11">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N11">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O11">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P11">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q11">
-        <v>1.324177182416</v>
+        <v>1.0020015821915</v>
       </c>
       <c r="R11">
-        <v>7.945063094496</v>
+        <v>6.012009493148999</v>
       </c>
       <c r="S11">
-        <v>0.0003826241724600637</v>
+        <v>0.0009419444521953569</v>
       </c>
       <c r="T11">
-        <v>0.0003888105878959487</v>
+        <v>0.001156478586549656</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I12">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J12">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N12">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O12">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P12">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q12">
-        <v>322.6318166065867</v>
+        <v>1.884384397250667</v>
       </c>
       <c r="R12">
-        <v>2903.68634945928</v>
+        <v>16.959459575256</v>
       </c>
       <c r="S12">
-        <v>0.09322523713416517</v>
+        <v>0.00177143974654376</v>
       </c>
       <c r="T12">
-        <v>0.1420988081744518</v>
+        <v>0.003262345453810147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I13">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J13">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N13">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O13">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P13">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q13">
-        <v>15.88462343880133</v>
+        <v>8.921296593766332</v>
       </c>
       <c r="R13">
-        <v>142.961610949212</v>
+        <v>80.29166934389698</v>
       </c>
       <c r="S13">
-        <v>0.004589900036656646</v>
+        <v>0.008386579404903078</v>
       </c>
       <c r="T13">
-        <v>0.006996166970432484</v>
+        <v>0.01544501823896921</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H14">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I14">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J14">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N14">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O14">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P14">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q14">
-        <v>3.140652608413833</v>
+        <v>93.56572899728</v>
       </c>
       <c r="R14">
-        <v>18.843915650483</v>
+        <v>374.26291598912</v>
       </c>
       <c r="S14">
-        <v>0.0009074991030175929</v>
+        <v>0.08795766484903439</v>
       </c>
       <c r="T14">
-        <v>0.0009221718991006626</v>
+        <v>0.07199373995904021</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H15">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I15">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J15">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.115296</v>
       </c>
       <c r="O15">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P15">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q15">
-        <v>0.0008439539093333333</v>
+        <v>0.02812607488</v>
       </c>
       <c r="R15">
-        <v>0.007595585183999999</v>
+        <v>0.16875644928</v>
       </c>
       <c r="S15">
-        <v>2.43862506046155E-07</v>
+        <v>2.644027780605229E-05</v>
       </c>
       <c r="T15">
-        <v>3.717080538794813E-07</v>
+        <v>3.246222750593988E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H16">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I16">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J16">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N16">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O16">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P16">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q16">
-        <v>0.06954719395922222</v>
+        <v>1.415878162773333</v>
       </c>
       <c r="R16">
-        <v>0.6259247456329999</v>
+        <v>8.49526897664</v>
       </c>
       <c r="S16">
-        <v>2.009582848045714E-05</v>
+        <v>0.001331014445597958</v>
       </c>
       <c r="T16">
-        <v>3.063111839813866E-05</v>
+        <v>0.001634161867119374</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H17">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I17">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J17">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N17">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O17">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P17">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q17">
-        <v>0.009392061594666667</v>
+        <v>0.23685013616</v>
       </c>
       <c r="R17">
-        <v>0.05635236956799999</v>
+        <v>0.94740054464</v>
       </c>
       <c r="S17">
-        <v>2.713858721531961E-06</v>
+        <v>0.0002226540114534357</v>
       </c>
       <c r="T17">
-        <v>2.75773743776087E-06</v>
+        <v>0.0001822432988521044</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H18">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I18">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J18">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N18">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O18">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P18">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q18">
-        <v>2.288347763582222</v>
+        <v>0.4454251460266667</v>
       </c>
       <c r="R18">
-        <v>20.59512987224</v>
+        <v>2.67255087616</v>
       </c>
       <c r="S18">
-        <v>0.0006612235741322543</v>
+        <v>0.0004187276274060206</v>
       </c>
       <c r="T18">
-        <v>0.001007871738484541</v>
+        <v>0.0005140956386156129</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H19">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I19">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J19">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N19">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O19">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P19">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q19">
-        <v>0.1126657094884444</v>
+        <v>2.108789397653333</v>
       </c>
       <c r="R19">
-        <v>1.013991385396</v>
+        <v>12.65273638592</v>
       </c>
       <c r="S19">
-        <v>3.255502694812266E-05</v>
+        <v>0.001982394548343455</v>
       </c>
       <c r="T19">
-        <v>4.962208380073988E-05</v>
+        <v>0.002433898134766554</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H20">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I20">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J20">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N20">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O20">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P20">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q20">
-        <v>217.8965939329673</v>
+        <v>5.683698688651999</v>
       </c>
       <c r="R20">
-        <v>871.5863757318691</v>
+        <v>34.10219213191199</v>
       </c>
       <c r="S20">
-        <v>0.06296174336983558</v>
+        <v>0.005343033926170573</v>
       </c>
       <c r="T20">
-        <v>0.04265315544003297</v>
+        <v>0.00655994555562505</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H21">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I21">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J21">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.115296</v>
       </c>
       <c r="O21">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P21">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q21">
-        <v>0.05855301595200001</v>
+        <v>0.001708532992</v>
       </c>
       <c r="R21">
-        <v>0.351318095712</v>
+        <v>0.015376796928</v>
       </c>
       <c r="S21">
-        <v>1.691903437937099E-05</v>
+        <v>1.606128375253963E-06</v>
       </c>
       <c r="T21">
-        <v>1.7192587863386E-05</v>
+        <v>2.957902245034563E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H22">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I22">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J22">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N22">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O22">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P22">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q22">
-        <v>4.825142596386501</v>
+        <v>0.08600825262933331</v>
       </c>
       <c r="R22">
-        <v>28.950855578319</v>
+        <v>0.7740742736639999</v>
       </c>
       <c r="S22">
-        <v>0.001394236524734335</v>
+        <v>8.085316215771589E-05</v>
       </c>
       <c r="T22">
-        <v>0.001416779079488352</v>
+        <v>0.0001489020140290068</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H23">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I23">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J23">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N23">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O23">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P23">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q23">
-        <v>0.6516155992560001</v>
+        <v>0.014387584244</v>
       </c>
       <c r="R23">
-        <v>2.606462397024</v>
+        <v>0.08632550546399999</v>
       </c>
       <c r="S23">
-        <v>0.0001882858900894946</v>
+        <v>1.352523329303391E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001275534460661035</v>
+        <v>1.660569542612282E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H24">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I24">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J24">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N24">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O24">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P24">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q24">
-        <v>158.76419508572</v>
+        <v>0.02705758129066667</v>
       </c>
       <c r="R24">
-        <v>952.5851705143201</v>
+        <v>0.243518231616</v>
       </c>
       <c r="S24">
-        <v>0.04587529491342468</v>
+        <v>2.543582668884189E-05</v>
       </c>
       <c r="T24">
-        <v>0.04661702440415048</v>
+        <v>4.684350891648928E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H25">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I25">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J25">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N25">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O25">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P25">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q25">
-        <v>7.816679337538002</v>
+        <v>0.1280995046213333</v>
       </c>
       <c r="R25">
-        <v>46.900076025228</v>
+        <v>1.152895541592</v>
       </c>
       <c r="S25">
-        <v>0.002258648240301394</v>
+        <v>0.0001204215840090137</v>
       </c>
       <c r="T25">
-        <v>0.00229516693761264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.563407</v>
-      </c>
-      <c r="H26">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J26">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>143.0191385</v>
-      </c>
-      <c r="N26">
-        <v>286.038277</v>
-      </c>
-      <c r="O26">
-        <v>0.5586909079605606</v>
-      </c>
-      <c r="P26">
-        <v>0.4580112546679992</v>
-      </c>
-      <c r="Q26">
-        <v>366.6162607648695</v>
-      </c>
-      <c r="R26">
-        <v>2199.697564589217</v>
-      </c>
-      <c r="S26">
-        <v>0.1059346477558411</v>
-      </c>
-      <c r="T26">
-        <v>0.1076474400654806</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2.563407</v>
-      </c>
-      <c r="H27">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I27">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J27">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M27">
-        <v>0.038432</v>
-      </c>
-      <c r="N27">
-        <v>0.115296</v>
-      </c>
-      <c r="O27">
-        <v>0.0001501310188268283</v>
-      </c>
-      <c r="P27">
-        <v>0.000184614682244788</v>
-      </c>
-      <c r="Q27">
-        <v>0.09851685782399999</v>
-      </c>
-      <c r="R27">
-        <v>0.8866517204159999</v>
-      </c>
-      <c r="S27">
-        <v>2.846668232834087E-05</v>
-      </c>
-      <c r="T27">
-        <v>4.339041396823144E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>2.563407</v>
-      </c>
-      <c r="H28">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J28">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>3.167042333333333</v>
-      </c>
-      <c r="N28">
-        <v>9.501127</v>
-      </c>
-      <c r="O28">
-        <v>0.01237175510436691</v>
-      </c>
-      <c r="P28">
-        <v>0.015213429278313</v>
-      </c>
-      <c r="Q28">
-        <v>8.118418486563</v>
-      </c>
-      <c r="R28">
-        <v>73.065766379067</v>
-      </c>
-      <c r="S28">
-        <v>0.002345836491033707</v>
-      </c>
-      <c r="T28">
-        <v>0.003575647322498099</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2.563407</v>
-      </c>
-      <c r="H29">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J29">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.427696</v>
-      </c>
-      <c r="N29">
-        <v>0.855392</v>
-      </c>
-      <c r="O29">
-        <v>0.001670754481373834</v>
-      </c>
-      <c r="P29">
-        <v>0.001369673902604892</v>
-      </c>
-      <c r="Q29">
-        <v>1.096358920272</v>
-      </c>
-      <c r="R29">
-        <v>6.578153521631999</v>
-      </c>
-      <c r="S29">
-        <v>0.0003167955392668109</v>
-      </c>
-      <c r="T29">
-        <v>0.0003219176119302788</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>2.563407</v>
-      </c>
-      <c r="H30">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I30">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J30">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>104.2068533333333</v>
-      </c>
-      <c r="N30">
-        <v>312.62056</v>
-      </c>
-      <c r="O30">
-        <v>0.4070743406450668</v>
-      </c>
-      <c r="P30">
-        <v>0.5005754349464654</v>
-      </c>
-      <c r="Q30">
-        <v>267.12457728264</v>
-      </c>
-      <c r="R30">
-        <v>2404.12119554376</v>
-      </c>
-      <c r="S30">
-        <v>0.07718628721575795</v>
-      </c>
-      <c r="T30">
-        <v>0.1176513973891578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2.563407</v>
-      </c>
-      <c r="H31">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I31">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J31">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>5.130574666666667</v>
-      </c>
-      <c r="N31">
-        <v>15.391724</v>
-      </c>
-      <c r="O31">
-        <v>0.0200421107898049</v>
-      </c>
-      <c r="P31">
-        <v>0.02464559252237265</v>
-      </c>
-      <c r="Q31">
-        <v>13.151751014556</v>
-      </c>
-      <c r="R31">
-        <v>118.365759131004</v>
-      </c>
-      <c r="S31">
-        <v>0.003800229995780427</v>
-      </c>
-      <c r="T31">
-        <v>0.005792510373688272</v>
+        <v>0.0002217726049666223</v>
       </c>
     </row>
   </sheetData>
